--- a/StreamInspection_BF2020.xlsx
+++ b/StreamInspection_BF2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmpec\Documents\R\escapement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970BA335-BBBA-496C-A482-40C2ED18B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2582BDE-C83D-44EE-BF03-418143B71CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3087,8 +3087,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -3328,7 +3329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3355,6 +3356,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -47968,14 +47973,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FT163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="ES1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="FA6" sqref="FA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="49.77734375" customWidth="1"/>
     <col min="23" max="23" width="8.88671875" customWidth="1"/>
     <col min="24" max="24" width="34.109375" customWidth="1"/>
@@ -48004,7 +48011,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -48534,7 +48541,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="11">
         <v>0.40625</v>
       </c>
       <c r="H2" s="9">
@@ -48689,7 +48696,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11">
         <v>0.59027777777777801</v>
       </c>
       <c r="H3" s="9">
@@ -48847,7 +48854,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>0.58333333333333304</v>
       </c>
       <c r="H4" s="9">
@@ -49002,7 +49009,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="11">
         <v>0.52083333333333304</v>
       </c>
       <c r="H5" s="9">
@@ -49154,7 +49161,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H6" s="9">
@@ -49330,7 +49337,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>0.52083333333333304</v>
       </c>
       <c r="H7" s="9">
@@ -49485,7 +49492,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H8" s="9">
@@ -49640,7 +49647,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>0.53125</v>
       </c>
       <c r="H9" s="9">
@@ -49804,7 +49811,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H10" s="9">
@@ -49956,7 +49963,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>0.5</v>
       </c>
       <c r="H11" s="9">
@@ -50111,7 +50118,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H12" s="9">
@@ -50266,7 +50273,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>0.43055555555555602</v>
       </c>
       <c r="H13" s="9">
@@ -50421,7 +50428,7 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>0.45486111111111099</v>
       </c>
       <c r="H14" s="9">
@@ -50576,7 +50583,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>0.57986111111111105</v>
       </c>
       <c r="H15" s="9">
@@ -50725,7 +50732,7 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>0.54861111111111105</v>
       </c>
       <c r="H16" s="9">
@@ -50880,7 +50887,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>0.59722222222222199</v>
       </c>
       <c r="L17" t="s">
@@ -51023,7 +51030,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="11">
         <v>0.5625</v>
       </c>
       <c r="H18" s="9">
@@ -51178,7 +51185,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="11">
         <v>0.52083333333333304</v>
       </c>
       <c r="H19" s="9">
@@ -51330,7 +51337,7 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="11">
         <v>0.54861111111111105</v>
       </c>
       <c r="H20" s="9">
@@ -51485,7 +51492,7 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="11">
         <v>0.55208333333333304</v>
       </c>
       <c r="H21" s="9">
@@ -51640,7 +51647,7 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="11">
         <v>0.42708333333333298</v>
       </c>
       <c r="H22" s="9">
@@ -51849,7 +51856,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="11">
         <v>0.42708333333333298</v>
       </c>
       <c r="H23" s="9">
@@ -52046,7 +52053,7 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="11">
         <v>0.42361111111111099</v>
       </c>
       <c r="H24" s="9">
@@ -52270,7 +52277,7 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="11">
         <v>0.41319444444444398</v>
       </c>
       <c r="H25" s="9">
@@ -52470,7 +52477,7 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="11">
         <v>0.42013888888888901</v>
       </c>
       <c r="H26" s="9">
@@ -52694,7 +52701,7 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="11">
         <v>0.42708333333333298</v>
       </c>
       <c r="H27" s="9">
@@ -52840,7 +52847,7 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="11">
         <v>0.52083333333333304</v>
       </c>
       <c r="H28" s="9">
@@ -53019,7 +53026,7 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="11">
         <v>0.47569444444444398</v>
       </c>
       <c r="H29" s="9">
@@ -53150,7 +53157,7 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="11">
         <v>0.47916666666666702</v>
       </c>
       <c r="H30" s="9">
@@ -53353,7 +53360,7 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="11">
         <v>0.42361111111111099</v>
       </c>
       <c r="H31" s="9">
@@ -53502,7 +53509,7 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="11">
         <v>0.47916666666666702</v>
       </c>
       <c r="H32" s="9">
@@ -53651,7 +53658,7 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="11">
         <v>0.47222222222222199</v>
       </c>
       <c r="H33" s="9">
@@ -53806,7 +53813,7 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="11">
         <v>0.41319444444444398</v>
       </c>
       <c r="H34" s="9">
@@ -53937,7 +53944,7 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="11">
         <v>0.41666666666666702</v>
       </c>
       <c r="H35" s="9">
@@ -54068,7 +54075,7 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="11">
         <v>0.39583333333333298</v>
       </c>
       <c r="H36" s="9">
@@ -54241,7 +54248,7 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H37" s="9">
@@ -54396,7 +54403,7 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="11">
         <v>0.53819444444444398</v>
       </c>
       <c r="H38" s="9">
@@ -54569,7 +54576,7 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="11">
         <v>0.61458333333333304</v>
       </c>
       <c r="H39" s="9">
@@ -54721,7 +54728,7 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H40" s="9">
@@ -54876,7 +54883,7 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="11">
         <v>0.39583333333333298</v>
       </c>
       <c r="H41" s="9">
@@ -55049,7 +55056,7 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="11">
         <v>0.59722222222222199</v>
       </c>
       <c r="H42" s="9">
@@ -55204,7 +55211,7 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H43" s="9">
@@ -55356,7 +55363,7 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="11">
         <v>0.38888888888888901</v>
       </c>
       <c r="H44" s="9">
@@ -55508,7 +55515,7 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="11">
         <v>0.64583333333333304</v>
       </c>
       <c r="H45" s="9">
@@ -55684,7 +55691,7 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="11">
         <v>0.61458333333333304</v>
       </c>
       <c r="H46" s="9">
@@ -55839,7 +55846,7 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="11">
         <v>0.59027777777777801</v>
       </c>
       <c r="H47" s="9">
@@ -56021,7 +56028,7 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="11">
         <v>0.68055555555555602</v>
       </c>
       <c r="H48" s="9">
@@ -56176,7 +56183,7 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="11">
         <v>0.60416666666666696</v>
       </c>
       <c r="H49" s="9">
@@ -56334,7 +56341,7 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="11">
         <v>0.63541666666666696</v>
       </c>
       <c r="H50" s="9">
@@ -56489,7 +56496,7 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="11">
         <v>0.65972222222222199</v>
       </c>
       <c r="H51" s="9">
@@ -56662,7 +56669,7 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="11">
         <v>0.60416666666666696</v>
       </c>
       <c r="H52" s="9">
@@ -56844,7 +56851,7 @@
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="11">
         <v>0.65972222222222199</v>
       </c>
       <c r="H53" s="9">
@@ -57002,7 +57009,7 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="11">
         <v>0.66666666666666696</v>
       </c>
       <c r="H54" s="9">
@@ -57181,7 +57188,7 @@
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="11">
         <v>0.59027777777777801</v>
       </c>
       <c r="H55" s="9">
@@ -57336,7 +57343,7 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="11">
         <v>0.59027777777777801</v>
       </c>
       <c r="H56" s="9">
@@ -57515,7 +57522,7 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="11">
         <v>0.60069444444444398</v>
       </c>
       <c r="H57" s="9">
@@ -57670,7 +57677,7 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="11">
         <v>0.44444444444444398</v>
       </c>
       <c r="H58" s="9">
@@ -57849,7 +57856,7 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="11">
         <v>0.57291666666666696</v>
       </c>
       <c r="H59" s="9">
@@ -58004,7 +58011,7 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="11">
         <v>0.54513888888888895</v>
       </c>
       <c r="H60" s="9">
@@ -58159,7 +58166,7 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="11">
         <v>0.60763888888888895</v>
       </c>
       <c r="H61" s="9">
@@ -58335,7 +58342,7 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="11">
         <v>0.65625</v>
       </c>
       <c r="H62" s="9">
@@ -58538,7 +58545,7 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="11">
         <v>0.56597222222222199</v>
       </c>
       <c r="H63" s="9">
@@ -58693,7 +58700,7 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="11">
         <v>0.56944444444444398</v>
       </c>
       <c r="H64" s="9">
@@ -58848,7 +58855,7 @@
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="11">
         <v>0.59722222222222199</v>
       </c>
       <c r="H65" s="9">
@@ -59024,7 +59031,7 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="11">
         <v>0.61805555555555602</v>
       </c>
       <c r="H66" s="9">
@@ -59179,7 +59186,7 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="11">
         <v>0.42361111111111099</v>
       </c>
       <c r="H67" s="9">
@@ -59382,7 +59389,7 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="11">
         <v>0.5625</v>
       </c>
       <c r="H68" s="9">
@@ -59585,7 +59592,7 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="11">
         <v>0.59375</v>
       </c>
       <c r="H69" s="9">
@@ -59716,7 +59723,7 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="11">
         <v>0.53125</v>
       </c>
       <c r="H70" s="9">
@@ -59871,7 +59878,7 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="11">
         <v>0.61805555555555602</v>
       </c>
       <c r="H71" s="9">
@@ -60074,7 +60081,7 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="11">
         <v>0.59027777777777801</v>
       </c>
       <c r="H72" s="9">
@@ -60295,7 +60302,7 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="11">
         <v>0.64583333333333304</v>
       </c>
       <c r="H73" s="9">
@@ -60474,7 +60481,7 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="11">
         <v>0.55555555555555602</v>
       </c>
       <c r="H74" s="9">
@@ -60605,7 +60612,7 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="11">
         <v>0.55555555555555602</v>
       </c>
       <c r="H75" s="9">
@@ -60730,7 +60737,7 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="11">
         <v>0.58333333333333304</v>
       </c>
       <c r="H76" s="9">
@@ -60930,7 +60937,7 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="11">
         <v>0.67013888888888895</v>
       </c>
       <c r="H77" s="9">
@@ -61085,7 +61092,7 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="11">
         <v>0.40972222222222199</v>
       </c>
       <c r="H78" s="9">
@@ -61264,7 +61271,7 @@
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="11">
         <v>0.54166666666666696</v>
       </c>
       <c r="H79" s="9">
@@ -61467,7 +61474,7 @@
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="11">
         <v>0.60763888888888895</v>
       </c>
       <c r="H80" s="9">
@@ -61595,7 +61602,7 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="11">
         <v>0.60416666666666696</v>
       </c>
       <c r="H81" s="9">
@@ -61819,7 +61826,7 @@
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="11">
         <v>0.52083333333333304</v>
       </c>
       <c r="H82" s="9">
@@ -61947,7 +61954,7 @@
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="11">
         <v>0.55555555555555602</v>
       </c>
       <c r="H83" s="9">
@@ -62075,7 +62082,7 @@
       <c r="F84">
         <v>0</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="11">
         <v>0.70138888888888895</v>
       </c>
       <c r="H84" s="9">
@@ -62239,7 +62246,7 @@
       <c r="F85">
         <v>0</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="11">
         <v>0.63888888888888895</v>
       </c>
       <c r="H85" s="9">
@@ -62394,7 +62401,7 @@
       <c r="F86">
         <v>0</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="11">
         <v>0.67361111111111105</v>
       </c>
       <c r="H86" s="9">
@@ -62546,7 +62553,7 @@
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="11">
         <v>0.54861111111111105</v>
       </c>
       <c r="H87" s="9">
@@ -62725,7 +62732,7 @@
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="11">
         <v>0.61458333333333304</v>
       </c>
       <c r="H88" s="9">
@@ -62904,7 +62911,7 @@
       <c r="F89">
         <v>0</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="11">
         <v>0.46875</v>
       </c>
       <c r="H89" s="9">
@@ -63083,7 +63090,7 @@
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="11">
         <v>0.625</v>
       </c>
       <c r="H90" s="9">
@@ -63238,7 +63245,7 @@
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="11">
         <v>0.5625</v>
       </c>
       <c r="H91" s="9">
@@ -63417,7 +63424,7 @@
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="11">
         <v>0.64583333333333304</v>
       </c>
       <c r="H92" s="9">
@@ -63596,7 +63603,7 @@
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="11">
         <v>0.67361111111111105</v>
       </c>
       <c r="H93" s="9">
@@ -63751,7 +63758,7 @@
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="11">
         <v>0.46527777777777801</v>
       </c>
       <c r="H94" s="9">
@@ -63906,7 +63913,7 @@
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="11">
         <v>0.53819444444444398</v>
       </c>
       <c r="H95" s="9">
@@ -64058,7 +64065,7 @@
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="11">
         <v>0.60763888888888895</v>
       </c>
       <c r="H96" s="9">
@@ -64213,7 +64220,7 @@
       <c r="F97">
         <v>0</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="11">
         <v>0.54166666666666696</v>
       </c>
       <c r="H97" s="9">
@@ -64368,7 +64375,7 @@
       <c r="F98">
         <v>0</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="11">
         <v>0.42013888888888901</v>
       </c>
       <c r="H98" s="9">
@@ -64547,7 +64554,7 @@
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="11">
         <v>0.55902777777777801</v>
       </c>
       <c r="H99" s="9">
@@ -64705,7 +64712,7 @@
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="11">
         <v>0.56597222222222199</v>
       </c>
       <c r="H100" s="9">
@@ -64836,7 +64843,7 @@
       <c r="F101">
         <v>0</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="11">
         <v>0.51736111111111105</v>
       </c>
       <c r="H101" s="9">
@@ -64991,7 +64998,7 @@
       <c r="F102">
         <v>0</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="11">
         <v>0.47916666666666702</v>
       </c>
       <c r="H102" s="9">
@@ -65173,7 +65180,7 @@
       <c r="F103">
         <v>0</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="11">
         <v>0.38541666666666702</v>
       </c>
       <c r="H103" s="9">
@@ -65325,7 +65332,7 @@
       <c r="F104">
         <v>0</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="11">
         <v>0.41666666666666702</v>
       </c>
       <c r="H104" s="9">
@@ -65483,7 +65490,7 @@
       <c r="F105">
         <v>0</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G105" s="11">
         <v>0.42708333333333298</v>
       </c>
       <c r="H105" s="9">
@@ -65641,7 +65648,7 @@
       <c r="F106">
         <v>0</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="11">
         <v>0.42361111111111099</v>
       </c>
       <c r="H106" s="9">
@@ -65796,7 +65803,7 @@
       <c r="F107">
         <v>0</v>
       </c>
-      <c r="G107" s="9">
+      <c r="G107" s="11">
         <v>0.44791666666666702</v>
       </c>
       <c r="H107" s="9">
@@ -65948,7 +65955,7 @@
       <c r="F108">
         <v>0</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="11">
         <v>0.43402777777777801</v>
       </c>
       <c r="H108" s="9">
@@ -66103,7 +66110,7 @@
       <c r="F109">
         <v>0</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G109" s="11">
         <v>0.43055555555555602</v>
       </c>
       <c r="H109" s="9">
@@ -66258,7 +66265,7 @@
       <c r="F110">
         <v>0</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G110" s="11">
         <v>0.45833333333333298</v>
       </c>
       <c r="H110" s="9">
@@ -66413,7 +66420,7 @@
       <c r="F111">
         <v>0</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G111" s="11">
         <v>0.6875</v>
       </c>
       <c r="H111" s="9">
@@ -66562,7 +66569,7 @@
       <c r="F112">
         <v>0</v>
       </c>
-      <c r="G112" s="9">
+      <c r="G112" s="11">
         <v>0.61458333333333304</v>
       </c>
       <c r="H112" s="9">
@@ -66717,7 +66724,7 @@
       <c r="F113">
         <v>0</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G113" s="11">
         <v>0.64583333333333304</v>
       </c>
       <c r="H113" s="9">
@@ -66869,7 +66876,7 @@
       <c r="F114">
         <v>0</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G114" s="11">
         <v>0.5625</v>
       </c>
       <c r="H114" s="9">
@@ -67024,7 +67031,7 @@
       <c r="F115">
         <v>0</v>
       </c>
-      <c r="G115" s="9">
+      <c r="G115" s="11">
         <v>0.58333333333333304</v>
       </c>
       <c r="H115" s="9">
@@ -67179,7 +67186,7 @@
       <c r="F116">
         <v>0</v>
       </c>
-      <c r="G116" s="9">
+      <c r="G116" s="11">
         <v>0.5</v>
       </c>
       <c r="H116" s="9">
@@ -67334,7 +67341,7 @@
       <c r="F117">
         <v>0</v>
       </c>
-      <c r="G117" s="9">
+      <c r="G117" s="11">
         <v>0.64930555555555602</v>
       </c>
       <c r="H117" s="9">
@@ -67471,7 +67478,7 @@
       <c r="F118">
         <v>0</v>
       </c>
-      <c r="G118" s="9">
+      <c r="G118" s="11">
         <v>0.57638888888888895</v>
       </c>
       <c r="H118" s="9">
@@ -67626,7 +67633,7 @@
       <c r="F119">
         <v>0</v>
       </c>
-      <c r="G119" s="9">
+      <c r="G119" s="11">
         <v>0.64583333333333304</v>
       </c>
       <c r="H119" s="9">
@@ -67805,7 +67812,7 @@
       <c r="F120">
         <v>0</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G120" s="11">
         <v>0.63541666666666696</v>
       </c>
       <c r="H120" s="9">
@@ -67960,7 +67967,7 @@
       <c r="F121">
         <v>0</v>
       </c>
-      <c r="G121" s="9">
+      <c r="G121" s="11">
         <v>0.63194444444444398</v>
       </c>
       <c r="H121" s="9">
@@ -68088,7 +68095,7 @@
       <c r="F122">
         <v>0</v>
       </c>
-      <c r="G122" s="9">
+      <c r="G122" s="11">
         <v>0.60416666666666696</v>
       </c>
       <c r="H122" s="9">
@@ -68216,7 +68223,7 @@
       <c r="F123">
         <v>0</v>
       </c>
-      <c r="G123" s="9">
+      <c r="G123" s="11">
         <v>0.59375</v>
       </c>
       <c r="H123" s="9">
@@ -68368,7 +68375,7 @@
       <c r="F124">
         <v>0</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G124" s="11">
         <v>0.66666666666666696</v>
       </c>
       <c r="H124" s="9">
@@ -68523,7 +68530,7 @@
       <c r="F125">
         <v>0</v>
       </c>
-      <c r="G125" s="9">
+      <c r="G125" s="11">
         <v>0.46875</v>
       </c>
       <c r="H125" s="9">
@@ -68702,7 +68709,7 @@
       <c r="F126">
         <v>0</v>
       </c>
-      <c r="G126" s="9">
+      <c r="G126" s="11">
         <v>0.39583333333333298</v>
       </c>
       <c r="H126" s="9">
@@ -68854,7 +68861,7 @@
       <c r="F127">
         <v>0</v>
       </c>
-      <c r="G127" s="9">
+      <c r="G127" s="11">
         <v>0.42708333333333298</v>
       </c>
       <c r="H127" s="9">
@@ -69006,7 +69013,7 @@
       <c r="F128">
         <v>0</v>
       </c>
-      <c r="G128" s="9">
+      <c r="G128" s="11">
         <v>0.46875</v>
       </c>
       <c r="H128" s="9">
@@ -69230,7 +69237,7 @@
       <c r="F129">
         <v>0</v>
       </c>
-      <c r="G129" s="9">
+      <c r="G129" s="11">
         <v>0.42708333333333298</v>
       </c>
       <c r="H129" s="9">
@@ -69385,7 +69392,7 @@
       <c r="F130">
         <v>0</v>
       </c>
-      <c r="G130" s="9">
+      <c r="G130" s="11">
         <v>0.49652777777777801</v>
       </c>
       <c r="H130" s="9">
@@ -69585,7 +69592,7 @@
       <c r="F131">
         <v>0</v>
       </c>
-      <c r="G131" s="9">
+      <c r="G131" s="11">
         <v>0.42013888888888901</v>
       </c>
       <c r="H131" s="9">
@@ -69809,7 +69816,7 @@
       <c r="F132">
         <v>0</v>
       </c>
-      <c r="G132" s="9">
+      <c r="G132" s="11">
         <v>0.41319444444444398</v>
       </c>
       <c r="H132" s="9">
@@ -70030,7 +70037,7 @@
       <c r="F133">
         <v>0</v>
       </c>
-      <c r="G133" s="9">
+      <c r="G133" s="11">
         <v>0.4375</v>
       </c>
       <c r="H133" s="9">
@@ -70149,7 +70156,7 @@
       <c r="F134">
         <v>0</v>
       </c>
-      <c r="G134" s="9">
+      <c r="G134" s="11">
         <v>0.42361111111111099</v>
       </c>
       <c r="H134" s="9">
@@ -70322,7 +70329,7 @@
       <c r="F135">
         <v>0</v>
       </c>
-      <c r="G135" s="9">
+      <c r="G135" s="11">
         <v>0.5625</v>
       </c>
       <c r="H135" s="9">
@@ -70477,7 +70484,7 @@
       <c r="F136">
         <v>0</v>
       </c>
-      <c r="G136" s="9">
+      <c r="G136" s="11">
         <v>0.49305555555555602</v>
       </c>
       <c r="H136" s="9">
@@ -70629,7 +70636,7 @@
       <c r="F137">
         <v>0</v>
       </c>
-      <c r="G137" s="9">
+      <c r="G137" s="11">
         <v>0.61458333333333304</v>
       </c>
       <c r="H137" s="9">
@@ -70781,7 +70788,7 @@
       <c r="F138">
         <v>0</v>
       </c>
-      <c r="G138" s="9">
+      <c r="G138" s="11">
         <v>0.48611111111111099</v>
       </c>
       <c r="H138" s="9">
@@ -70936,7 +70943,7 @@
       <c r="F139">
         <v>0</v>
       </c>
-      <c r="G139" s="9">
+      <c r="G139" s="11">
         <v>0.47222222222222199</v>
       </c>
       <c r="H139" s="9">
@@ -71091,7 +71098,7 @@
       <c r="F140">
         <v>0</v>
       </c>
-      <c r="G140" s="9">
+      <c r="G140" s="11">
         <v>0.48958333333333298</v>
       </c>
       <c r="H140" s="9">
@@ -71246,7 +71253,7 @@
       <c r="F141">
         <v>0</v>
       </c>
-      <c r="G141" s="9">
+      <c r="G141" s="11">
         <v>0.57638888888888895</v>
       </c>
       <c r="H141" s="9">
@@ -71407,7 +71414,7 @@
       <c r="F142">
         <v>0</v>
       </c>
-      <c r="G142" s="9">
+      <c r="G142" s="11">
         <v>0.51041666666666696</v>
       </c>
       <c r="H142" s="9">
@@ -71562,7 +71569,7 @@
       <c r="F143">
         <v>0</v>
       </c>
-      <c r="G143" s="9">
+      <c r="G143" s="11">
         <v>0.48958333333333298</v>
       </c>
       <c r="H143" s="9">
@@ -71717,7 +71724,7 @@
       <c r="F144">
         <v>0</v>
       </c>
-      <c r="G144" s="9">
+      <c r="G144" s="11">
         <v>0.52083333333333304</v>
       </c>
       <c r="H144" s="9">
@@ -71941,7 +71948,7 @@
       <c r="F145">
         <v>0</v>
       </c>
-      <c r="G145" s="9">
+      <c r="G145" s="11">
         <v>0.45833333333333298</v>
       </c>
       <c r="H145" s="9">
@@ -72123,7 +72130,7 @@
       <c r="F146">
         <v>0</v>
       </c>
-      <c r="G146" s="9">
+      <c r="G146" s="11">
         <v>0.55208333333333304</v>
       </c>
       <c r="H146" s="9">
@@ -72302,7 +72309,7 @@
       <c r="F147">
         <v>0</v>
       </c>
-      <c r="G147" s="9">
+      <c r="G147" s="11">
         <v>0.43402777777777801</v>
       </c>
       <c r="H147" s="9">
@@ -72505,7 +72512,7 @@
       <c r="F148">
         <v>0</v>
       </c>
-      <c r="G148" s="9">
+      <c r="G148" s="11">
         <v>0.4375</v>
       </c>
       <c r="H148" s="9">
@@ -72705,7 +72712,7 @@
       <c r="F149">
         <v>0</v>
       </c>
-      <c r="G149" s="9">
+      <c r="G149" s="11">
         <v>0.46527777777777801</v>
       </c>
       <c r="H149" s="9">
@@ -72860,7 +72867,7 @@
       <c r="F150">
         <v>0</v>
       </c>
-      <c r="G150" s="9">
+      <c r="G150" s="11">
         <v>0.45833333333333298</v>
       </c>
       <c r="H150" s="9">
@@ -73015,7 +73022,7 @@
       <c r="F151">
         <v>0</v>
       </c>
-      <c r="G151" s="9">
+      <c r="G151" s="11">
         <v>0.59722222222222199</v>
       </c>
       <c r="H151" s="9">
@@ -73152,7 +73159,7 @@
       <c r="F152">
         <v>0</v>
       </c>
-      <c r="G152" s="9">
+      <c r="G152" s="11">
         <v>0.53472222222222199</v>
       </c>
       <c r="H152" s="9">
@@ -73283,7 +73290,7 @@
       <c r="F153">
         <v>0</v>
       </c>
-      <c r="G153" s="9">
+      <c r="G153" s="11">
         <v>0.44791666666666702</v>
       </c>
       <c r="H153" s="9">
@@ -73462,7 +73469,7 @@
       <c r="F154">
         <v>0</v>
       </c>
-      <c r="G154" s="9">
+      <c r="G154" s="11">
         <v>0.55555555555555602</v>
       </c>
       <c r="H154" s="9">
@@ -73617,7 +73624,7 @@
       <c r="F155">
         <v>0</v>
       </c>
-      <c r="G155" s="9">
+      <c r="G155" s="11">
         <v>0.53125</v>
       </c>
       <c r="H155" s="9">
@@ -73772,7 +73779,7 @@
       <c r="F156">
         <v>0</v>
       </c>
-      <c r="G156" s="9">
+      <c r="G156" s="11">
         <v>0.50694444444444398</v>
       </c>
       <c r="H156" s="9">
@@ -73927,7 +73934,7 @@
       <c r="F157">
         <v>0</v>
       </c>
-      <c r="G157" s="9">
+      <c r="G157" s="11">
         <v>0.55208333333333304</v>
       </c>
       <c r="H157" s="9">
@@ -74082,7 +74089,7 @@
       <c r="F158">
         <v>0</v>
       </c>
-      <c r="G158" s="9">
+      <c r="G158" s="11">
         <v>0.48611111111111099</v>
       </c>
       <c r="H158" s="9">
@@ -74240,7 +74247,7 @@
       <c r="F159">
         <v>0</v>
       </c>
-      <c r="G159" s="9">
+      <c r="G159" s="11">
         <v>0.59722222222222199</v>
       </c>
       <c r="H159" s="9">
@@ -74368,7 +74375,7 @@
       <c r="F160">
         <v>0</v>
       </c>
-      <c r="G160" s="9">
+      <c r="G160" s="11">
         <v>0.47222222222222199</v>
       </c>
       <c r="H160" s="9">
@@ -74520,7 +74527,7 @@
       <c r="F161">
         <v>0</v>
       </c>
-      <c r="G161" s="9">
+      <c r="G161" s="11">
         <v>0.45833333333333298</v>
       </c>
       <c r="H161" s="9">
@@ -74672,7 +74679,7 @@
       <c r="F162">
         <v>0</v>
       </c>
-      <c r="G162" s="9">
+      <c r="G162" s="11">
         <v>0.4375</v>
       </c>
       <c r="H162" s="9">
@@ -74800,7 +74807,7 @@
       <c r="F163">
         <v>0</v>
       </c>
-      <c r="G163" s="9">
+      <c r="G163" s="11">
         <v>0.4375</v>
       </c>
       <c r="H163" s="9">
